--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value107.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value107.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139401384996443</v>
+        <v>2.993232250213623</v>
       </c>
       <c r="B1">
-        <v>2.13301235692346</v>
+        <v>1.986650466918945</v>
       </c>
       <c r="C1">
-        <v>5.074311057428851</v>
+        <v>1.905375957489014</v>
       </c>
       <c r="D1">
-        <v>1.825866865831624</v>
+        <v>1.753554224967957</v>
       </c>
       <c r="E1">
-        <v>0.8229495922334696</v>
+        <v>1.534249663352966</v>
       </c>
     </row>
   </sheetData>
